--- a/Investment/THS/AutoTrade/data/position/Robots_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Robots_position.xlsx
@@ -8,11 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="有色金属_组合信息" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="有色金属_持仓信息" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="钢铁_组合信息" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="钢铁_持仓信息" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="建筑行业_组合信息" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="建筑行业_持仓信息" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="钢铁_组合信息" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="建筑行业_组合信息" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -493,16 +490,16 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>791.9929</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>270782</v>
+        <v>268670</v>
       </c>
       <c r="F2" t="n">
-        <v>270.78</v>
+        <v>268.67</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -519,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,100 +527,72 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>股票代码</t>
+          <t>组合名称</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>股票名称</t>
+          <t>总收益率</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>市场</t>
+          <t>今日盈亏</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>今日收益率</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>累计盈亏</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>累计收益率</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>最新价</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>成本价</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>持仓量</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市值</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>今日盈亏</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>累计盈亏</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>今日收益率</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>累计收益率</t>
+          <t>创建时间</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sz300428</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>立中集团</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>18.22</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>18.97</v>
+        <v>232957</v>
       </c>
       <c r="F2" t="n">
-        <v>6600</v>
-      </c>
-      <c r="G2" t="n">
-        <v>125202</v>
-      </c>
-      <c r="H2" t="n">
-        <v>791.99</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4950</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6365967365967365</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.116355995439243</v>
-      </c>
+        <v>232.96</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -694,21 +663,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>钢铁</t>
+          <t>建筑行业</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>535.0025000000001</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>232957</v>
+        <v>171970</v>
       </c>
       <c r="F2" t="n">
-        <v>232.96</v>
+        <v>171.97</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -717,409 +686,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>股票代码</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>股票名称</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>成本价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>持仓量</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市值</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>今日盈亏</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>累计盈亏</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>今日收益率</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>累计收益率</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>sz000761</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>本钢板材</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>101640</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>sh603278</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>大业股份</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>112885</v>
-      </c>
-      <c r="H3" t="n">
-        <v>535</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>组合名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>总收益率</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>今日盈亏</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>今日收益率</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>累计盈亏</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>累计收益率</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>成本价</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>创建时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>建筑行业</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>5324.0054</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="E2" t="n">
-        <v>173205</v>
-      </c>
-      <c r="F2" t="n">
-        <v>173.21</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>股票代码</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>股票名称</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>成本价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>持仓量</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市值</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>今日盈亏</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>累计盈亏</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>今日收益率</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>累计收益率</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>sh603979</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>金诚信</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>48.41</v>
-      </c>
-      <c r="E2" t="n">
-        <v>53.65</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1900</v>
-      </c>
-      <c r="G2" t="n">
-        <v>101935</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4826</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9956</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.969673253766387</v>
-      </c>
-      <c r="K2" t="n">
-        <v>10.82420987399298</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>sz300536</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>农尚环境</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>85075</v>
-      </c>
-      <c r="H3" t="n">
-        <v>498</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5888125613346418</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/position/Robots_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Robots_position.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="有色金属_组合信息" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="钢铁_组合信息" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="建筑行业_组合信息" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="有色金属_持仓信息" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="钢铁_持仓信息" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="建筑行业_持仓信息" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,47 +439,57 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>组合名称</t>
+          <t>名称</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>总收益率</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>今日盈亏</t>
+          <t>标的名称</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>今日收益率</t>
+          <t>代码</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>累计盈亏</t>
+          <t>市场</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>累计收益率</t>
+          <t>最新价</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>最新价</t>
+          <t>成本价</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>成本价</t>
+          <t>持仓量</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>创建时间</t>
+          <t>市值</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
         </is>
       </c>
     </row>
@@ -488,22 +499,422 @@
           <t>有色金属</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>268670</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西藏矿业</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sz000762</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>268.67</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>22.28</v>
+      </c>
+      <c r="G2" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5500</v>
+      </c>
+      <c r="I2" t="n">
+        <v>119460</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>驰宏锌锗</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sh600497</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="H3" t="n">
+        <v>19500</v>
+      </c>
+      <c r="I3" t="n">
+        <v>119340</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>楚江新材</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sz002171</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12300</v>
+      </c>
+      <c r="I4" t="n">
+        <v>116850</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>首钢股份</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>sz000959</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="H5" t="n">
+        <v>26600</v>
+      </c>
+      <c r="I5" t="n">
+        <v>109592</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大西洋</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>sh600558</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="H6" t="n">
+        <v>20400</v>
+      </c>
+      <c r="I6" t="n">
+        <v>108324</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永兴材料</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>sz002756</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>35.07</v>
+      </c>
+      <c r="G7" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>106640</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>建筑行业</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>森特股份</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>sh603098</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6500</v>
+      </c>
+      <c r="I8" t="n">
+        <v>88140</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>建筑行业</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>江河集团</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>sh601886</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11700</v>
+      </c>
+      <c r="I9" t="n">
+        <v>89388</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>建筑行业</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中毅达</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>sh600610</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6800</v>
+      </c>
+      <c r="I10" t="n">
+        <v>87108</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -516,7 +927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,72 +938,200 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>组合名称</t>
+          <t>名称</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>总收益率</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>今日盈亏</t>
+          <t>标的名称</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>今日收益率</t>
+          <t>代码</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>累计盈亏</t>
+          <t>市场</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>累计收益率</t>
+          <t>最新价</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>最新价</t>
+          <t>成本价</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>成本价</t>
+          <t>持仓量</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>创建时间</t>
+          <t>市值</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>钢铁</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>232957</v>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西藏矿业</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sz000762</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>232.96</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>22.28</v>
+      </c>
+      <c r="G2" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5500</v>
+      </c>
+      <c r="I2" t="n">
+        <v>119460</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>驰宏锌锗</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sh600497</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="H3" t="n">
+        <v>19500</v>
+      </c>
+      <c r="I3" t="n">
+        <v>119340</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>楚江新材</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sz002171</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12300</v>
+      </c>
+      <c r="I4" t="n">
+        <v>116850</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -605,7 +1144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,72 +1155,417 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>组合名称</t>
+          <t>名称</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>总收益率</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>今日盈亏</t>
+          <t>标的名称</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>今日收益率</t>
+          <t>代码</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>累计盈亏</t>
+          <t>市场</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>累计收益率</t>
+          <t>最新价</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>最新价</t>
+          <t>成本价</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>成本价</t>
+          <t>持仓量</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>创建时间</t>
+          <t>市值</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>首钢股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sz000959</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="H2" t="n">
+        <v>26600</v>
+      </c>
+      <c r="I2" t="n">
+        <v>109592</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大西洋</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sh600558</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>108324</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永兴材料</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sz002756</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>35.07</v>
+      </c>
+      <c r="G4" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>106640</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>成本价</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>持仓量</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>市值</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>建筑行业</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>171970</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>森特股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sh603098</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>171.97</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>13.92</v>
+      </c>
+      <c r="G2" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6500</v>
+      </c>
+      <c r="I2" t="n">
+        <v>88140</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>建筑行业</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>江河集团</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sh601886</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11700</v>
+      </c>
+      <c r="I3" t="n">
+        <v>89388</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>建筑行业</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中毅达</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sh600610</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6800</v>
+      </c>
+      <c r="I4" t="n">
+        <v>87108</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Investment/THS/AutoTrade/data/position/Robots_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Robots_position.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="有色金属_持仓信息" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="钢铁_持仓信息" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="建筑行业_持仓信息" sheetId="4" state="visible" r:id="rId4"/>
@@ -523,20 +523,20 @@
         <v>22.28</v>
       </c>
       <c r="G2" t="n">
-        <v>21.72</v>
+        <v>21.19</v>
       </c>
       <c r="H2" t="n">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119460</v>
+        <v>120120</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -570,20 +570,20 @@
         <v>6.27</v>
       </c>
       <c r="G3" t="n">
-        <v>6.12</v>
+        <v>6.01</v>
       </c>
       <c r="H3" t="n">
-        <v>19500</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>119340</v>
+        <v>120705</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -617,20 +617,20 @@
         <v>9.949999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>9.5</v>
+        <v>9.31</v>
       </c>
       <c r="H4" t="n">
-        <v>12300</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>116850</v>
+        <v>117588.01</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -664,20 +664,20 @@
         <v>4.16</v>
       </c>
       <c r="G5" t="n">
-        <v>4.12</v>
+        <v>4.06</v>
       </c>
       <c r="H5" t="n">
-        <v>26600</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>109592</v>
+        <v>109858</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -711,20 +711,20 @@
         <v>5.43</v>
       </c>
       <c r="G6" t="n">
-        <v>5.31</v>
+        <v>5.17</v>
       </c>
       <c r="H6" t="n">
-        <v>20400</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>108324</v>
+        <v>108528</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -758,20 +758,20 @@
         <v>35.07</v>
       </c>
       <c r="G7" t="n">
-        <v>34.4</v>
+        <v>33.83</v>
       </c>
       <c r="H7" t="n">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>106640</v>
+        <v>106857</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -805,20 +805,20 @@
         <v>13.92</v>
       </c>
       <c r="G8" t="n">
-        <v>13.56</v>
+        <v>13.25</v>
       </c>
       <c r="H8" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>88140</v>
+        <v>88075</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -852,20 +852,20 @@
         <v>7.73</v>
       </c>
       <c r="G9" t="n">
-        <v>7.64</v>
+        <v>7.54</v>
       </c>
       <c r="H9" t="n">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89388</v>
+        <v>89622</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -899,20 +899,20 @@
         <v>13.28</v>
       </c>
       <c r="G10" t="n">
-        <v>12.81</v>
+        <v>12.46</v>
       </c>
       <c r="H10" t="n">
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87108</v>
+        <v>86768</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -1022,20 +1022,20 @@
         <v>22.28</v>
       </c>
       <c r="G2" t="n">
-        <v>21.72</v>
+        <v>21.19</v>
       </c>
       <c r="H2" t="n">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119460</v>
+        <v>120120</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -1069,20 +1069,20 @@
         <v>6.27</v>
       </c>
       <c r="G3" t="n">
-        <v>6.12</v>
+        <v>6.01</v>
       </c>
       <c r="H3" t="n">
-        <v>19500</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>119340</v>
+        <v>120705</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -1116,20 +1116,20 @@
         <v>9.949999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>9.5</v>
+        <v>9.31</v>
       </c>
       <c r="H4" t="n">
-        <v>12300</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>116850</v>
+        <v>117588.01</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -1239,20 +1239,20 @@
         <v>4.16</v>
       </c>
       <c r="G2" t="n">
-        <v>4.12</v>
+        <v>4.06</v>
       </c>
       <c r="H2" t="n">
-        <v>26600</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>109592</v>
+        <v>109858</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -1286,20 +1286,20 @@
         <v>5.43</v>
       </c>
       <c r="G3" t="n">
-        <v>5.31</v>
+        <v>5.17</v>
       </c>
       <c r="H3" t="n">
-        <v>20400</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>108324</v>
+        <v>108528</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -1333,20 +1333,20 @@
         <v>35.07</v>
       </c>
       <c r="G4" t="n">
-        <v>34.4</v>
+        <v>33.83</v>
       </c>
       <c r="H4" t="n">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106640</v>
+        <v>106857</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -1456,20 +1456,20 @@
         <v>13.92</v>
       </c>
       <c r="G2" t="n">
-        <v>13.56</v>
+        <v>13.25</v>
       </c>
       <c r="H2" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>88140</v>
+        <v>88075</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -1503,20 +1503,20 @@
         <v>7.73</v>
       </c>
       <c r="G3" t="n">
-        <v>7.64</v>
+        <v>7.54</v>
       </c>
       <c r="H3" t="n">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89388</v>
+        <v>89622</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -1550,20 +1550,20 @@
         <v>13.28</v>
       </c>
       <c r="G4" t="n">
-        <v>12.81</v>
+        <v>12.46</v>
       </c>
       <c r="H4" t="n">
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87108</v>
+        <v>86768</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/position/Robots_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Robots_position.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="有色金属_组合信息" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="有色金属_持仓信息" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="钢铁_持仓信息" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="建筑行业_持仓信息" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="钢铁_组合信息" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="钢铁_持仓信息" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,57 +439,47 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>名称</t>
+          <t>组合名称</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>总收益率</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>标的名称</t>
+          <t>今日盈亏</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>代码</t>
+          <t>今日收益率</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>市场</t>
+          <t>累计盈亏</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>累计收益率</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>最新价</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>成本价</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>持仓量</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>市值</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
+          <t>创建时间</t>
         </is>
       </c>
     </row>
@@ -499,234 +489,22 @@
           <t>有色金属</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>西部矿业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>sh601168</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>-5850.999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="E2" t="n">
+        <v>245552.02</v>
       </c>
       <c r="F2" t="n">
-        <v>19.11</v>
-      </c>
-      <c r="G2" t="n">
-        <v>18.93</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>115072</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2025-09-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>有色金属</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>江西铜业</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>sh600362</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>29.72</v>
-      </c>
-      <c r="G3" t="n">
-        <v>29.07</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>113800</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2025-09-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>钢铁</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>包钢股份</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>sh600010</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>104490</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2025-09-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>建筑行业</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ST中装</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>sz002822</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>87380</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2025-09-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>建筑行业</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国晟科技</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>sh603778</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="H6" t="n">
-        <v>23700</v>
-      </c>
-      <c r="I6" t="n">
-        <v>90534</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2025-09-05</t>
-        </is>
-      </c>
+        <v>245.54999</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -739,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,152 +528,181 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>名称</t>
+          <t>股票代码</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>股票名称</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>标的名称</t>
+          <t>市场</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>代码</t>
+          <t>最新价</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>市场</t>
+          <t>成本价</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>最新价</t>
+          <t>持仓量</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>成本价</t>
+          <t>市值</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>持仓量</t>
+          <t>今日盈亏</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>市值</t>
+          <t>累计盈亏</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>新比例%</t>
+          <t>今日收益率</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>时间</t>
+          <t>累计收益率</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>有色金属</t>
+          <t>sh601137</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>博威合金</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>西部矿业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>sh601168</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
           <t>沪深A股</t>
         </is>
       </c>
+      <c r="D2" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="E2" t="n">
+        <v>24.94</v>
+      </c>
       <c r="F2" t="n">
-        <v>19.11</v>
+        <v>4600</v>
       </c>
       <c r="G2" t="n">
-        <v>18.93</v>
+        <v>114724</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-1610.01</v>
       </c>
       <c r="I2" t="n">
-        <v>115072</v>
+        <v>-1610</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2025-09-05</t>
-        </is>
+        <v>-1.383954700779248</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1.383946104840708</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>有色金属</t>
+          <t>sz000657</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>中钨高新</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>江西铜业</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>sh600362</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
           <t>沪深A股</t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19.93</v>
+      </c>
       <c r="F3" t="n">
-        <v>29.72</v>
+        <v>5800</v>
       </c>
       <c r="G3" t="n">
-        <v>29.07</v>
+        <v>115594</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-406</v>
       </c>
       <c r="I3" t="n">
-        <v>113800</v>
+        <v>-406</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2025-09-05</t>
-        </is>
+        <v>-0.35</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sz000603</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>盛达资源</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5900</v>
+      </c>
+      <c r="G4" t="n">
+        <v>111805</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-3835</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-3835</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-3.316326530612245</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-3.316326530612245</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -920,57 +727,47 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>名称</t>
+          <t>组合名称</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>总收益率</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>标的名称</t>
+          <t>今日盈亏</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>代码</t>
+          <t>今日收益率</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>市场</t>
+          <t>累计盈亏</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>累计收益率</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>最新价</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>成本价</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>持仓量</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>市值</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
+          <t>创建时间</t>
         </is>
       </c>
     </row>
@@ -980,46 +777,22 @@
           <t>钢铁</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>包钢股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>sh600010</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>6975.9995</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E2" t="n">
+        <v>230301</v>
       </c>
       <c r="F2" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>104490</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2025-09-05</t>
-        </is>
-      </c>
+        <v>230.3</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1043,199 +816,181 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>名称</t>
+          <t>股票代码</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>股票名称</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>标的名称</t>
+          <t>市场</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>代码</t>
+          <t>最新价</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>市场</t>
+          <t>成本价</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>最新价</t>
+          <t>持仓量</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>成本价</t>
+          <t>市值</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>持仓量</t>
+          <t>今日盈亏</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>市值</t>
+          <t>累计盈亏</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>新比例%</t>
+          <t>今日收益率</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>时间</t>
+          <t>累计收益率</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>建筑行业</t>
+          <t>sh603878</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>武进不锈</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>永福股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>sz300712</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.73</v>
       </c>
       <c r="F2" t="n">
-        <v>26.57</v>
+        <v>18900</v>
       </c>
       <c r="G2" t="n">
-        <v>27.2</v>
+        <v>108297</v>
       </c>
       <c r="H2" t="n">
-        <v>3300</v>
+        <v>945</v>
       </c>
       <c r="I2" t="n">
-        <v>89760</v>
+        <v>945</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2025-09-05</t>
-        </is>
+        <v>0.8802816901408451</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8802816901408451</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>建筑行业</t>
+          <t>sz002541</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>鸿路钢构</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ST中装</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>sz002822</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
           <t>沪深A股</t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18.68</v>
+      </c>
       <c r="F3" t="n">
-        <v>3.43</v>
+        <v>6000</v>
       </c>
       <c r="G3" t="n">
-        <v>3.38</v>
+        <v>112080</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4680</v>
       </c>
       <c r="I3" t="n">
-        <v>87380</v>
+        <v>4680</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2025-09-05</t>
-        </is>
+        <v>4.357541899441341</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.357541899441341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>建筑行业</t>
+          <t>sz002478</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>常宝股份</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国晟科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>sh603778</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>沪深A股</t>
         </is>
       </c>
+      <c r="D4" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.64</v>
+      </c>
       <c r="F4" t="n">
-        <v>3.72</v>
+        <v>19300</v>
       </c>
       <c r="G4" t="n">
-        <v>3.82</v>
+        <v>108852</v>
       </c>
       <c r="H4" t="n">
-        <v>23700</v>
+        <v>1351</v>
       </c>
       <c r="I4" t="n">
-        <v>90534</v>
+        <v>1350.99</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2025-09-05</t>
-        </is>
+        <v>1.25673249551167</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.256723193272621</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/position/Robots_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Robots_position.xlsx
@@ -491,16 +491,16 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-5850.999</v>
+        <v>1134.9961</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.68</v>
+        <v>0.32999998</v>
       </c>
       <c r="E2" t="n">
-        <v>245552.02</v>
+        <v>247370</v>
       </c>
       <c r="F2" t="n">
-        <v>245.54999</v>
+        <v>247.37001</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -602,25 +602,25 @@
         <v>25.29</v>
       </c>
       <c r="E2" t="n">
-        <v>24.94</v>
+        <v>25.25</v>
       </c>
       <c r="F2" t="n">
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>114724</v>
+        <v>114448</v>
       </c>
       <c r="H2" t="n">
-        <v>-1610.01</v>
+        <v>-414</v>
       </c>
       <c r="I2" t="n">
-        <v>-1610</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.383954700779248</v>
+        <v>-0.3604325190228274</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.383946104840708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -643,25 +643,25 @@
         <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>19.93</v>
+        <v>20.04</v>
       </c>
       <c r="F3" t="n">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>115594</v>
+        <v>113912</v>
       </c>
       <c r="H3" t="n">
-        <v>-406</v>
+        <v>-870.01</v>
       </c>
       <c r="I3" t="n">
-        <v>-406</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.35</v>
+        <v>-0.7579672770991968</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -684,25 +684,25 @@
         <v>19.6</v>
       </c>
       <c r="E4" t="n">
-        <v>18.95</v>
+        <v>19.91</v>
       </c>
       <c r="F4" t="n">
-        <v>5900</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>111805</v>
+        <v>115581</v>
       </c>
       <c r="H4" t="n">
-        <v>-3835</v>
+        <v>2419</v>
       </c>
       <c r="I4" t="n">
-        <v>-3835</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-3.316326530612245</v>
+        <v>2.137643378519291</v>
       </c>
       <c r="K4" t="n">
-        <v>-3.316326530612245</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -779,16 +779,16 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>6975.9995</v>
+        <v>15801.001</v>
       </c>
       <c r="D2" t="n">
-        <v>2.17</v>
+        <v>4.78</v>
       </c>
       <c r="E2" t="n">
-        <v>230301</v>
+        <v>247335</v>
       </c>
       <c r="F2" t="n">
-        <v>230.3</v>
+        <v>247.34001</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -890,25 +890,25 @@
         <v>5.68</v>
       </c>
       <c r="E2" t="n">
-        <v>5.73</v>
+        <v>6.35</v>
       </c>
       <c r="F2" t="n">
         <v>18900</v>
       </c>
       <c r="G2" t="n">
-        <v>108297</v>
+        <v>120015</v>
       </c>
       <c r="H2" t="n">
-        <v>945</v>
+        <v>10584</v>
       </c>
       <c r="I2" t="n">
-        <v>945</v>
+        <v>12663</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8802816901408451</v>
+        <v>9.671848013816927</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8802816901408451</v>
+        <v>11.79577464788732</v>
       </c>
     </row>
     <row r="3">
@@ -931,25 +931,25 @@
         <v>17.9</v>
       </c>
       <c r="E3" t="n">
-        <v>18.68</v>
+        <v>19.18</v>
       </c>
       <c r="F3" t="n">
         <v>6000</v>
       </c>
       <c r="G3" t="n">
-        <v>112080</v>
+        <v>115080</v>
       </c>
       <c r="H3" t="n">
-        <v>4680</v>
+        <v>3480</v>
       </c>
       <c r="I3" t="n">
-        <v>4680</v>
+        <v>7680</v>
       </c>
       <c r="J3" t="n">
-        <v>4.357541899441341</v>
+        <v>3.118279569892473</v>
       </c>
       <c r="K3" t="n">
-        <v>4.357541899441341</v>
+        <v>7.150837988826815</v>
       </c>
     </row>
     <row r="4">
@@ -972,25 +972,25 @@
         <v>5.57</v>
       </c>
       <c r="E4" t="n">
-        <v>5.64</v>
+        <v>5.76</v>
       </c>
       <c r="F4" t="n">
         <v>19300</v>
       </c>
       <c r="G4" t="n">
-        <v>108852</v>
+        <v>111168</v>
       </c>
       <c r="H4" t="n">
-        <v>1351</v>
+        <v>1737</v>
       </c>
       <c r="I4" t="n">
-        <v>1350.99</v>
+        <v>3667</v>
       </c>
       <c r="J4" t="n">
-        <v>1.25673249551167</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="K4" t="n">
-        <v>1.256723193272621</v>
+        <v>3.411131059245961</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/position/Robots_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Robots_position.xlsx
@@ -491,16 +491,16 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1134.9961</v>
+        <v>4733.9976</v>
       </c>
       <c r="D2" t="n">
-        <v>0.32999998</v>
+        <v>1.37</v>
       </c>
       <c r="E2" t="n">
-        <v>247370</v>
+        <v>252104</v>
       </c>
       <c r="F2" t="n">
-        <v>247.37001</v>
+        <v>252.09999</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -585,12 +585,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sh601137</t>
+          <t>sz000426</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>博威合金</t>
+          <t>兴业银锡</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -599,39 +599,39 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>25.29</v>
+        <v>23.11</v>
       </c>
       <c r="E2" t="n">
-        <v>25.25</v>
+        <v>23.49</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G2" t="n">
-        <v>114448</v>
+        <v>117450</v>
       </c>
       <c r="H2" t="n">
-        <v>-414</v>
+        <v>1900</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3604325190228274</v>
+        <v>1.644309822587624</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.644309822587624</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sz000657</t>
+          <t>sh600549</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>中钨高新</t>
+          <t>厦门钨业</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -640,39 +640,39 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E3" t="n">
-        <v>20.04</v>
+        <v>31.52</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="G3" t="n">
-        <v>113912</v>
+        <v>116624</v>
       </c>
       <c r="H3" t="n">
-        <v>-870.01</v>
+        <v>1924</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1924</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.7579672770991968</v>
+        <v>1.67741935483871</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.67741935483871</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sz000603</t>
+          <t>sz002379</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>盛达资源</t>
+          <t>宏创控股</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -681,28 +681,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>19.6</v>
+        <v>16.35</v>
       </c>
       <c r="E4" t="n">
-        <v>19.91</v>
+        <v>16.48</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="G4" t="n">
-        <v>115581</v>
+        <v>115360</v>
       </c>
       <c r="H4" t="n">
-        <v>2419</v>
+        <v>910</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>909.99</v>
       </c>
       <c r="J4" t="n">
-        <v>2.137643378519291</v>
+        <v>0.7951070336391437</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.7950982961992136</v>
       </c>
     </row>
   </sheetData>
@@ -779,16 +779,16 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>15801.001</v>
+        <v>-1605.0026</v>
       </c>
       <c r="D2" t="n">
-        <v>4.78</v>
+        <v>-0.47</v>
       </c>
       <c r="E2" t="n">
-        <v>247335</v>
+        <v>244381</v>
       </c>
       <c r="F2" t="n">
-        <v>247.34001</v>
+        <v>244.38</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -890,25 +890,25 @@
         <v>5.68</v>
       </c>
       <c r="E2" t="n">
-        <v>6.35</v>
+        <v>6.34</v>
       </c>
       <c r="F2" t="n">
         <v>18900</v>
       </c>
       <c r="G2" t="n">
-        <v>120015</v>
+        <v>119826</v>
       </c>
       <c r="H2" t="n">
-        <v>10584</v>
+        <v>-566.99</v>
       </c>
       <c r="I2" t="n">
-        <v>12663</v>
+        <v>12474.01</v>
       </c>
       <c r="J2" t="n">
-        <v>9.671848013816927</v>
+        <v>-0.4709493076840016</v>
       </c>
       <c r="K2" t="n">
-        <v>11.79577464788732</v>
+        <v>11.61972762500932</v>
       </c>
     </row>
     <row r="3">
@@ -931,25 +931,25 @@
         <v>17.9</v>
       </c>
       <c r="E3" t="n">
-        <v>19.18</v>
+        <v>18.88</v>
       </c>
       <c r="F3" t="n">
         <v>6000</v>
       </c>
       <c r="G3" t="n">
-        <v>115080</v>
+        <v>113279.99</v>
       </c>
       <c r="H3" t="n">
-        <v>3480</v>
+        <v>119.99</v>
       </c>
       <c r="I3" t="n">
-        <v>7680</v>
+        <v>5880</v>
       </c>
       <c r="J3" t="n">
-        <v>3.118279569892473</v>
+        <v>0.1060357016613644</v>
       </c>
       <c r="K3" t="n">
-        <v>7.150837988826815</v>
+        <v>5.474860335195531</v>
       </c>
     </row>
     <row r="4">
@@ -972,25 +972,25 @@
         <v>5.57</v>
       </c>
       <c r="E4" t="n">
-        <v>5.76</v>
+        <v>5.71</v>
       </c>
       <c r="F4" t="n">
         <v>19300</v>
       </c>
       <c r="G4" t="n">
-        <v>111168</v>
+        <v>110203</v>
       </c>
       <c r="H4" t="n">
-        <v>1737</v>
+        <v>-1158</v>
       </c>
       <c r="I4" t="n">
-        <v>3667</v>
+        <v>2702</v>
       </c>
       <c r="J4" t="n">
-        <v>1.587301587301587</v>
+        <v>-1.039861351819757</v>
       </c>
       <c r="K4" t="n">
-        <v>3.411131059245961</v>
+        <v>2.513464991023339</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/position/Robots_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Robots_position.xlsx
@@ -491,16 +491,16 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>4733.9976</v>
+        <v>-1234.0044</v>
       </c>
       <c r="D2" t="n">
-        <v>1.37</v>
+        <v>-0.34</v>
       </c>
       <c r="E2" t="n">
-        <v>252104</v>
+        <v>261698</v>
       </c>
       <c r="F2" t="n">
-        <v>252.09999</v>
+        <v>261.7</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -585,12 +585,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sz000426</t>
+          <t>sh601212</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>兴业银锡</t>
+          <t>白银有色</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -599,39 +599,39 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23.11</v>
+        <v>3.98</v>
       </c>
       <c r="E2" t="n">
-        <v>23.49</v>
+        <v>3.84</v>
       </c>
       <c r="F2" t="n">
-        <v>5000</v>
+        <v>29300</v>
       </c>
       <c r="G2" t="n">
-        <v>117450</v>
+        <v>112512</v>
       </c>
       <c r="H2" t="n">
-        <v>1900</v>
+        <v>-4102</v>
       </c>
       <c r="I2" t="n">
-        <v>1900</v>
+        <v>-4102</v>
       </c>
       <c r="J2" t="n">
-        <v>1.644309822587624</v>
+        <v>-3.517587939698493</v>
       </c>
       <c r="K2" t="n">
-        <v>1.644309822587624</v>
+        <v>-3.517587939698493</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sh600549</t>
+          <t>sz000426</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>厦门钨业</t>
+          <t>兴业银锡</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -640,39 +640,39 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>31</v>
+        <v>23.11</v>
       </c>
       <c r="E3" t="n">
-        <v>31.52</v>
+        <v>25.7</v>
       </c>
       <c r="F3" t="n">
-        <v>3700</v>
+        <v>5000</v>
       </c>
       <c r="G3" t="n">
-        <v>116624</v>
+        <v>128500</v>
       </c>
       <c r="H3" t="n">
-        <v>1924</v>
+        <v>450</v>
       </c>
       <c r="I3" t="n">
-        <v>1924</v>
+        <v>12950</v>
       </c>
       <c r="J3" t="n">
-        <v>1.67741935483871</v>
+        <v>0.3514252245216712</v>
       </c>
       <c r="K3" t="n">
-        <v>1.67741935483871</v>
+        <v>11.20726958026828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sz002379</t>
+          <t>sh600362</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>宏创控股</t>
+          <t>江西铜业</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -681,28 +681,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16.35</v>
+        <v>29.48</v>
       </c>
       <c r="E4" t="n">
-        <v>16.48</v>
+        <v>29.72</v>
       </c>
       <c r="F4" t="n">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>115360</v>
+        <v>120510</v>
       </c>
       <c r="H4" t="n">
-        <v>910</v>
+        <v>2418</v>
       </c>
       <c r="I4" t="n">
-        <v>909.99</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7951070336391437</v>
+        <v>2.047556142668428</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7950982961992136</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -779,16 +779,16 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-1605.0026</v>
+        <v>942.00415</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.47</v>
+        <v>0.26</v>
       </c>
       <c r="E2" t="n">
-        <v>244381</v>
+        <v>260723</v>
       </c>
       <c r="F2" t="n">
-        <v>244.38</v>
+        <v>260.72</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -873,12 +873,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sh603878</t>
+          <t>sh600010</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>武进不锈</t>
+          <t>包钢股份</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -887,39 +887,39 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.68</v>
+        <v>2.51</v>
       </c>
       <c r="E2" t="n">
-        <v>6.34</v>
+        <v>2.45</v>
       </c>
       <c r="F2" t="n">
-        <v>18900</v>
+        <v>51900</v>
       </c>
       <c r="G2" t="n">
-        <v>119826</v>
+        <v>127155</v>
       </c>
       <c r="H2" t="n">
-        <v>-566.99</v>
+        <v>-3114</v>
       </c>
       <c r="I2" t="n">
-        <v>12474.01</v>
+        <v>-3114</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.4709493076840016</v>
+        <v>-2.390438247011952</v>
       </c>
       <c r="K2" t="n">
-        <v>11.61972762500932</v>
+        <v>-2.390438247011952</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sz002541</t>
+          <t>sh600581</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>鸿路钢构</t>
+          <t>八一钢铁</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -928,39 +928,39 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17.9</v>
+        <v>4.29</v>
       </c>
       <c r="E3" t="n">
-        <v>18.88</v>
+        <v>4.66</v>
       </c>
       <c r="F3" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>113279.99</v>
+        <v>119970</v>
       </c>
       <c r="H3" t="n">
-        <v>119.99</v>
+        <v>1032</v>
       </c>
       <c r="I3" t="n">
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1060357016613644</v>
+        <v>0.8676789587852495</v>
       </c>
       <c r="K3" t="n">
-        <v>5.474860335195531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sz002478</t>
+          <t>sh603507</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>常宝股份</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -969,28 +969,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5.57</v>
+        <v>26.19</v>
       </c>
       <c r="E4" t="n">
-        <v>5.71</v>
+        <v>27.02</v>
       </c>
       <c r="F4" t="n">
-        <v>19300</v>
+        <v>4200</v>
       </c>
       <c r="G4" t="n">
-        <v>110203</v>
+        <v>113484</v>
       </c>
       <c r="H4" t="n">
-        <v>-1158</v>
+        <v>3024.01</v>
       </c>
       <c r="I4" t="n">
-        <v>2702</v>
+        <v>3486</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.039861351819757</v>
+        <v>2.737651638602209</v>
       </c>
       <c r="K4" t="n">
-        <v>2.513464991023339</v>
+        <v>3.169148529973272</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/position/Robots_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Robots_position.xlsx
@@ -7,10 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="有色金属_组合信息" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="有色金属_持仓信息" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="钢铁_组合信息" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="钢铁_持仓信息" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="所有机器人组合信息" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="所有机器人持仓信息" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +480,11 @@
           <t>创建时间</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>机器人名称</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -491,20 +494,53 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-1234.0044</v>
+        <v>-3682.0012</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.34</v>
+        <v>-1.02</v>
       </c>
       <c r="E2" t="n">
-        <v>261698</v>
+        <v>261102</v>
       </c>
       <c r="F2" t="n">
-        <v>261.7</v>
+        <v>261.1</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>1301.0021</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.35999998</v>
+      </c>
+      <c r="E3" t="n">
+        <v>263695</v>
+      </c>
+      <c r="F3" t="n">
+        <v>263.7</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -517,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,27 +594,37 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>市值</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>今日盈亏</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>累计盈亏</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>今日收益率</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>累计收益率</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>机器人名称</t>
         </is>
       </c>
     </row>
@@ -602,25 +648,33 @@
         <v>3.98</v>
       </c>
       <c r="E2" t="n">
-        <v>3.84</v>
+        <v>3.8</v>
       </c>
       <c r="F2" t="n">
-        <v>29300</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>112512</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-4102</v>
+        <v>111926</v>
       </c>
       <c r="I2" t="n">
-        <v>-4102</v>
+        <v>-1172</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.517587939698493</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.517587939698493</v>
+        <v>-1.036269430051814</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -643,36 +697,44 @@
         <v>23.11</v>
       </c>
       <c r="E3" t="n">
-        <v>25.7</v>
+        <v>25.39</v>
       </c>
       <c r="F3" t="n">
         <v>5000</v>
       </c>
       <c r="G3" t="n">
-        <v>128500</v>
+        <v>69.44</v>
       </c>
       <c r="H3" t="n">
-        <v>450</v>
+        <v>126950</v>
       </c>
       <c r="I3" t="n">
-        <v>12950</v>
+        <v>-4050.01</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3514252245216712</v>
+        <v>11399.99</v>
       </c>
       <c r="K3" t="n">
-        <v>11.20726958026828</v>
+        <v>-3.091610687022901</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9.865850281263523</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sh600362</t>
+          <t>sz000831</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>江西铜业</t>
+          <t>中国稀土</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -681,316 +743,183 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>29.48</v>
+        <v>53.77</v>
       </c>
       <c r="E4" t="n">
-        <v>29.72</v>
+        <v>54.47</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="G4" t="n">
-        <v>120510</v>
+        <v>30.56</v>
       </c>
       <c r="H4" t="n">
-        <v>2418</v>
+        <v>119834</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1540</v>
       </c>
       <c r="J4" t="n">
-        <v>2.047556142668428</v>
+        <v>1540</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1.301841175376604</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.301841175376604</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>组合名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>总收益率</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>今日盈亏</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>今日收益率</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>累计盈亏</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>累计收益率</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>成本价</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>创建时间</t>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sh600010</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>包钢股份</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F5" t="n">
+        <v>51900</v>
+      </c>
+      <c r="G5" t="n">
+        <v>87.67</v>
+      </c>
+      <c r="H5" t="n">
+        <v>128193</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-1557</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-2076</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-1.593625498007968</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>钢铁</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sz002487</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>大金重工</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="H6" t="n">
+        <v>122450</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2480</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2480</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.0671834625323</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.0671834625323</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>钢铁</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>942.00415</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E2" t="n">
-        <v>260723</v>
-      </c>
-      <c r="F2" t="n">
-        <v>260.72</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>股票代码</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>股票名称</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>成本价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>持仓量</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市值</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>今日盈亏</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>累计盈亏</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>今日收益率</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>累计收益率</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>sh600010</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>包钢股份</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sh603507</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>振江股份</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="F2" t="n">
-        <v>51900</v>
-      </c>
-      <c r="G2" t="n">
-        <v>127155</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-3114</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-3114</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-2.390438247011952</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-2.390438247011952</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>sh600581</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>八一钢铁</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>119970</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1032</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.8676789587852495</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>sh603507</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="D7" t="n">
         <v>26.19</v>
       </c>
-      <c r="E4" t="n">
-        <v>27.02</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E7" t="n">
+        <v>26.89</v>
+      </c>
+      <c r="F7" t="n">
         <v>4200</v>
       </c>
-      <c r="G4" t="n">
-        <v>113484</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3024.01</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3486</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.737651638602209</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.169148529973272</v>
+      <c r="G7" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="H7" t="n">
+        <v>112938</v>
+      </c>
+      <c r="I7" t="n">
+        <v>378</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2940</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.335820895522388</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.672775868652157</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/position/Robots_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Robots_position.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,16 +494,16 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-3682.0012</v>
+        <v>-9474.994000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.02</v>
+        <v>-2.6399999</v>
       </c>
       <c r="E2" t="n">
-        <v>261102</v>
+        <v>251349.02</v>
       </c>
       <c r="F2" t="n">
-        <v>261.1</v>
+        <v>251.34999</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -511,34 +511,6 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>有色金属</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>钢铁</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
-        <v>1301.0021</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.35999998</v>
-      </c>
-      <c r="E3" t="n">
-        <v>263695</v>
-      </c>
-      <c r="F3" t="n">
-        <v>263.7</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>钢铁</t>
         </is>
       </c>
     </row>
@@ -553,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,45 +603,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sh601212</t>
+          <t>sz300618</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>白银有色</t>
+          <t>寒锐钴业</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>沪深A股</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.98</v>
+        <v>49</v>
       </c>
       <c r="E2" t="n">
-        <v>3.8</v>
+        <v>48.11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>51.11</v>
       </c>
       <c r="H2" t="n">
-        <v>111926</v>
+        <v>110653</v>
       </c>
       <c r="I2" t="n">
-        <v>-1172</v>
+        <v>-2047</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-2047</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.036269430051814</v>
+        <v>-1.816326530612245</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-1.816326530612245</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -697,28 +669,28 @@
         <v>23.11</v>
       </c>
       <c r="E3" t="n">
-        <v>25.39</v>
+        <v>24.54</v>
       </c>
       <c r="F3" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>69.44</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>126950</v>
+        <v>122500</v>
       </c>
       <c r="I3" t="n">
-        <v>-4050.01</v>
+        <v>-2500</v>
       </c>
       <c r="J3" t="n">
-        <v>11399.99</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-3.091610687022901</v>
+        <v>-2</v>
       </c>
       <c r="L3" t="n">
-        <v>9.865850281263523</v>
+        <v>0</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -746,179 +718,32 @@
         <v>53.77</v>
       </c>
       <c r="E4" t="n">
-        <v>54.47</v>
+        <v>52.99</v>
       </c>
       <c r="F4" t="n">
         <v>2200</v>
       </c>
       <c r="G4" t="n">
-        <v>30.56</v>
+        <v>48.89</v>
       </c>
       <c r="H4" t="n">
-        <v>119834</v>
+        <v>116578</v>
       </c>
       <c r="I4" t="n">
-        <v>1540</v>
+        <v>-4928</v>
       </c>
       <c r="J4" t="n">
-        <v>1540</v>
+        <v>-1716</v>
       </c>
       <c r="K4" t="n">
-        <v>1.301841175376604</v>
+        <v>-4.055766793409378</v>
       </c>
       <c r="L4" t="n">
-        <v>1.301841175376604</v>
+        <v>-1.450623023991073</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>有色金属</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>sh600010</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>包钢股份</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="F5" t="n">
-        <v>51900</v>
-      </c>
-      <c r="G5" t="n">
-        <v>87.67</v>
-      </c>
-      <c r="H5" t="n">
-        <v>128193</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-1557</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-2076</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-1.593625498007968</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>钢铁</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>sz002487</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>大金重工</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="E6" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="H6" t="n">
-        <v>122450</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2480</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2480</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.0671834625323</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.0671834625323</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>钢铁</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>sh603507</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>26.19</v>
-      </c>
-      <c r="E7" t="n">
-        <v>26.89</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4200</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="H7" t="n">
-        <v>112938</v>
-      </c>
-      <c r="I7" t="n">
-        <v>378</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2940</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.335820895522388</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.672775868652157</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>钢铁</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/position/Robots_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Robots_position.xlsx
@@ -494,16 +494,16 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-9474.994000000001</v>
+        <v>-4692.999</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.6399999</v>
+        <v>-1.35</v>
       </c>
       <c r="E2" t="n">
-        <v>251349.02</v>
+        <v>244181</v>
       </c>
       <c r="F2" t="n">
-        <v>251.34999</v>
+        <v>244.18001</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -620,28 +620,28 @@
         <v>49</v>
       </c>
       <c r="E2" t="n">
-        <v>48.11</v>
+        <v>48.91</v>
       </c>
       <c r="F2" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>51.11</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>110653</v>
+        <v>109963</v>
       </c>
       <c r="I2" t="n">
-        <v>-2047</v>
+        <v>69</v>
       </c>
       <c r="J2" t="n">
-        <v>-2047</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.816326530612245</v>
+        <v>0.06278777731268313</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.816326530612245</v>
+        <v>0</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -652,12 +652,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sz000426</t>
+          <t>sh601020</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>兴业银锡</t>
+          <t>华钰矿业</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -666,31 +666,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23.11</v>
+        <v>24.69</v>
       </c>
       <c r="E3" t="n">
-        <v>24.54</v>
+        <v>24.05</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>122500</v>
+        <v>120250</v>
       </c>
       <c r="I3" t="n">
-        <v>-2500</v>
+        <v>-3200</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-3200.01</v>
       </c>
       <c r="K3" t="n">
-        <v>-2</v>
+        <v>-2.592142567841231</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-2.592150668286756</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -718,28 +718,28 @@
         <v>53.77</v>
       </c>
       <c r="E4" t="n">
-        <v>52.99</v>
+        <v>51.72</v>
       </c>
       <c r="F4" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>48.89</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>116578</v>
+        <v>113300</v>
       </c>
       <c r="I4" t="n">
-        <v>-4928</v>
+        <v>-1562</v>
       </c>
       <c r="J4" t="n">
-        <v>-1716</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-4.055766793409378</v>
+        <v>-1.359892740854242</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.450623023991073</v>
+        <v>0</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
